--- a/DB/Kasina/test.xlsx
+++ b/DB/Kasina/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,191 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AWAKE NY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AWAKE NY TWO-TONE SPLIT CITY CREWNECK</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>￦179,000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>￦53,700</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M, L, XL, XXL(품절)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://shopby-images.cdn-nhncommerce.com/migration/71259/product/193047557/1242667842_detail_048.png</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.kasina.co.kr/product-detail/114214285</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AWAKE NY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AWAKE NY TWO-TONE SPLIT CITY CREWNECK</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>￦179,000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>￦53,700</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M, L(품절), XL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://shopby-images.cdn-nhncommerce.com/migration/71259/product/193047553/1242667841_detail_044.png</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.kasina.co.kr/product-detail/114214283</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AWAKE NY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AWAKE NY POLKA DOT FLANNEL SHIRT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>￦259,000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>￦77,700</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S, M, L(품절), XL(품절)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://shopby-images.cdn-nhncommerce.com/migration/71259/product/193047521/1242667832_detail_066.png</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.kasina.co.kr/product-detail/114214267</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AWAKE NY</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AWAKE NY POLKA DOT FLANNEL SHIRT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>￦259,000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>￦77,700</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>S, M, L(품절), XL(품절)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://shopby-images.cdn-nhncommerce.com/migration/71259/product/193047517/1242667831_detail_037.png</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.kasina.co.kr/product-detail/114214265</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AWAKE NY</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AWAKE NY CAMP COLLAR CHECKERBOARD LOGO SHIRT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>￦189,000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>￦56,700</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>S, M, L, XL(품절)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://shopby-images.cdn-nhncommerce.com/migration/71259/product/193047513/1242667830_detail_091.png</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.kasina.co.kr/product-detail/114214263</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
